--- a/lowe/edd/data/TRINIHWS.xlsx
+++ b/lowe/edd/data/TRINIHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1277,14 +1277,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH39"/>
+  <dimension ref="A1:JI39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1294,12 +1294,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,14 +1309,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2144,11 +2144,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2949,10 +2952,13 @@
         <v>4790</v>
       </c>
       <c r="JH9" s="11">
-        <v>4920</v>
+        <v>4900</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>4740</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3753,10 +3759,13 @@
         <v>4520</v>
       </c>
       <c r="JH10" s="11">
-        <v>4660</v>
+        <v>4640</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>4510</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4559,8 +4568,11 @@
       <c r="JH11" s="11">
         <v>260</v>
       </c>
+      <c r="JI11" s="11">
+        <v>220</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5363,8 +5375,11 @@
       <c r="JH12" s="12">
         <v>5.2999999999999999E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.7E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6165,10 +6180,13 @@
         <v>3020</v>
       </c>
       <c r="JH13" s="11">
-        <v>3160</v>
+        <v>3150</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>3020</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6971,8 +6989,11 @@
       <c r="JH14" s="11">
         <v>40</v>
       </c>
+      <c r="JI14" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7773,10 +7794,13 @@
         <v>2990</v>
       </c>
       <c r="JH15" s="11">
-        <v>3120</v>
+        <v>3110</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>2980</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8579,8 +8603,11 @@
       <c r="JH16" s="11">
         <v>1750</v>
       </c>
+      <c r="JI16" s="11">
+        <v>1660</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9383,8 +9410,11 @@
       <c r="JH17" s="11">
         <v>340</v>
       </c>
+      <c r="JI17" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10187,8 +10217,11 @@
       <c r="JH18" s="11">
         <v>130</v>
       </c>
+      <c r="JI18" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -10991,8 +11024,11 @@
       <c r="JH19" s="11">
         <v>200</v>
       </c>
+      <c r="JI19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11793,10 +11829,13 @@
         <v>2660</v>
       </c>
       <c r="JH20" s="11">
-        <v>2790</v>
+        <v>2770</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>2650</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12599,8 +12638,11 @@
       <c r="JH21" s="11">
         <v>310</v>
       </c>
+      <c r="JI21" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -13403,8 +13445,11 @@
       <c r="JH22" s="11">
         <v>400</v>
       </c>
+      <c r="JI22" s="11">
+        <v>390</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>26</v>
       </c>
@@ -14207,8 +14252,11 @@
       <c r="JH23" s="11">
         <v>40</v>
       </c>
+      <c r="JI23" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>27</v>
       </c>
@@ -15011,8 +15059,11 @@
       <c r="JH24" s="11">
         <v>270</v>
       </c>
+      <c r="JI24" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>28</v>
       </c>
@@ -15815,8 +15866,11 @@
       <c r="JH25" s="11">
         <v>400</v>
       </c>
+      <c r="JI25" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>29</v>
       </c>
@@ -16617,10 +16671,13 @@
         <v>1240</v>
       </c>
       <c r="JH26" s="11">
-        <v>1370</v>
+        <v>1350</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>1330</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -17423,8 +17480,11 @@
       <c r="JH27" s="11">
         <v>260</v>
       </c>
+      <c r="JI27" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -18225,10 +18285,13 @@
         <v>970</v>
       </c>
       <c r="JH28" s="11">
-        <v>1110</v>
+        <v>1090</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>1090</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32</v>
       </c>
@@ -19031,8 +19094,11 @@
       <c r="JH29" s="11">
         <v>110</v>
       </c>
+      <c r="JI29" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
@@ -19833,10 +19899,13 @@
         <v>870</v>
       </c>
       <c r="JH30" s="11">
-        <v>1000</v>
+        <v>980</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>970</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>78</v>
       </c>

--- a/lowe/edd/data/TRINIHWS.xlsx
+++ b/lowe/edd/data/TRINIHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI39"/>
+  <dimension ref="A1:JJ39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,12 +1294,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,14 +1309,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2147,11 +2147,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2957,8 +2960,11 @@
       <c r="JI9" s="11">
         <v>4740</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>4630</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3762,10 +3768,13 @@
         <v>4640</v>
       </c>
       <c r="JI10" s="11">
-        <v>4510</v>
+        <v>4520</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>4410</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4571,8 +4580,11 @@
       <c r="JI11" s="11">
         <v>220</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>220</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5376,10 +5388,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>4.7E-2</v>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6185,8 +6200,11 @@
       <c r="JI13" s="11">
         <v>3020</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>2950</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6992,8 +7010,11 @@
       <c r="JI14" s="11">
         <v>40</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7799,8 +7820,11 @@
       <c r="JI15" s="11">
         <v>2980</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>2920</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8606,8 +8630,11 @@
       <c r="JI16" s="11">
         <v>1660</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9413,8 +9440,11 @@
       <c r="JI17" s="11">
         <v>330</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>330</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10220,8 +10250,11 @@
       <c r="JI18" s="11">
         <v>130</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11027,8 +11060,11 @@
       <c r="JI19" s="11">
         <v>200</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>190</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11834,8 +11870,11 @@
       <c r="JI20" s="11">
         <v>2650</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>2590</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12641,8 +12680,11 @@
       <c r="JI21" s="11">
         <v>300</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>320</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -13448,8 +13490,11 @@
       <c r="JI22" s="11">
         <v>390</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>390</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>26</v>
       </c>
@@ -14255,8 +14300,11 @@
       <c r="JI23" s="11">
         <v>30</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>27</v>
       </c>
@@ -15062,8 +15110,11 @@
       <c r="JI24" s="11">
         <v>270</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>28</v>
       </c>
@@ -15869,8 +15920,11 @@
       <c r="JI25" s="11">
         <v>330</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>29</v>
       </c>
@@ -16676,8 +16730,11 @@
       <c r="JI26" s="11">
         <v>1330</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>1320</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -17483,8 +17540,11 @@
       <c r="JI27" s="11">
         <v>240</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>230</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -18290,8 +18350,11 @@
       <c r="JI28" s="11">
         <v>1090</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32</v>
       </c>
@@ -19097,8 +19160,11 @@
       <c r="JI29" s="11">
         <v>110</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
@@ -19902,10 +19968,13 @@
         <v>980</v>
       </c>
       <c r="JI30" s="11">
+        <v>980</v>
+      </c>
+      <c r="JJ30" s="11">
         <v>970</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>78</v>
       </c>

--- a/lowe/edd/data/TRINIHWS.xlsx
+++ b/lowe/edd/data/TRINIHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ39"/>
+  <dimension ref="A1:JL39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,12 +1294,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,14 +1309,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2150,11 +2150,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2963,8 +2969,14 @@
       <c r="JJ9" s="11">
         <v>4630</v>
       </c>
+      <c r="JK9" s="11">
+        <v>4530</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>4430</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3773,8 +3785,14 @@
       <c r="JJ10" s="11">
         <v>4410</v>
       </c>
+      <c r="JK10" s="11">
+        <v>4320</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>4230</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4581,10 +4599,16 @@
         <v>220</v>
       </c>
       <c r="JJ11" s="11">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>210</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5393,8 +5417,14 @@
       <c r="JJ12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6203,8 +6233,14 @@
       <c r="JJ13" s="11">
         <v>2950</v>
       </c>
+      <c r="JK13" s="11">
+        <v>2880</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>2820</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7013,8 +7049,14 @@
       <c r="JJ14" s="11">
         <v>30</v>
       </c>
+      <c r="JK14" s="11">
+        <v>40</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>40</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7823,8 +7865,14 @@
       <c r="JJ15" s="11">
         <v>2920</v>
       </c>
+      <c r="JK15" s="11">
+        <v>2840</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>2780</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8633,8 +8681,14 @@
       <c r="JJ16" s="11">
         <v>1600</v>
       </c>
+      <c r="JK16" s="11">
+        <v>1550</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1530</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9443,8 +9497,14 @@
       <c r="JJ17" s="11">
         <v>330</v>
       </c>
+      <c r="JK17" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10253,8 +10313,14 @@
       <c r="JJ18" s="11">
         <v>130</v>
       </c>
+      <c r="JK18" s="11">
+        <v>130</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>120</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11063,8 +11129,14 @@
       <c r="JJ19" s="11">
         <v>190</v>
       </c>
+      <c r="JK19" s="11">
+        <v>180</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11873,8 +11945,14 @@
       <c r="JJ20" s="11">
         <v>2590</v>
       </c>
+      <c r="JK20" s="11">
+        <v>2540</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>2480</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>21</v>
       </c>
@@ -12683,8 +12761,14 @@
       <c r="JJ21" s="11">
         <v>320</v>
       </c>
+      <c r="JK21" s="11">
+        <v>310</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>310</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>22</v>
       </c>
@@ -13493,8 +13577,14 @@
       <c r="JJ22" s="11">
         <v>390</v>
       </c>
+      <c r="JK22" s="11">
+        <v>370</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>370</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>26</v>
       </c>
@@ -14303,8 +14393,14 @@
       <c r="JJ23" s="11">
         <v>30</v>
       </c>
+      <c r="JK23" s="11">
+        <v>30</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>27</v>
       </c>
@@ -15113,8 +15209,14 @@
       <c r="JJ24" s="11">
         <v>260</v>
       </c>
+      <c r="JK24" s="11">
+        <v>270</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>28</v>
       </c>
@@ -15923,8 +16025,14 @@
       <c r="JJ25" s="11">
         <v>280</v>
       </c>
+      <c r="JK25" s="11">
+        <v>280</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>29</v>
       </c>
@@ -16733,8 +16841,14 @@
       <c r="JJ26" s="11">
         <v>1320</v>
       </c>
+      <c r="JK26" s="11">
+        <v>1290</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>1250</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>30</v>
       </c>
@@ -17543,8 +17657,14 @@
       <c r="JJ27" s="11">
         <v>230</v>
       </c>
+      <c r="JK27" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>31</v>
       </c>
@@ -18353,8 +18473,14 @@
       <c r="JJ28" s="11">
         <v>1080</v>
       </c>
+      <c r="JK28" s="11">
+        <v>1090</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>32</v>
       </c>
@@ -19163,8 +19289,14 @@
       <c r="JJ29" s="11">
         <v>110</v>
       </c>
+      <c r="JK29" s="11">
+        <v>110</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>33</v>
       </c>
@@ -19973,8 +20105,14 @@
       <c r="JJ30" s="11">
         <v>970</v>
       </c>
+      <c r="JK30" s="11">
+        <v>980</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>970</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>78</v>
       </c>
